--- a/diagrama.xlsx
+++ b/diagrama.xlsx
@@ -29,19 +29,6 @@
     <t>Teatro</t>
   </si>
   <si>
-    <t>-salasTeatro : []
--nombreTeatro : String
--cuidadTeatro : String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-searchSala(nomPelicula : Pelicula) : Void
--searchSalaId(IdSala) : Sala
--showPeliculas : Void
--addSala(
--menu() : void
-</t>
-  </si>
-  <si>
     <t>Sala</t>
   </si>
   <si>
@@ -214,6 +201,30 @@
   </si>
   <si>
     <t>Confiteria</t>
+  </si>
+  <si>
+    <t>-salasTeatro : Lista
+-nombreTeatro : String
+-cuidadTeatro : String
+-precioTeatro : int
+-usuariosTeatro : Lista
+-vendedoresTeatro : Lista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+getSalasTeatro() : List
++getCiudadTeatro() : String
++getNombreTeatro() : String
++getPrecioTeatro() : int
++searchSala(nomPelicula) : void
++searchSalaId(idSala) : Sala
++searchUsuarioId(usuarioId) : Usuario
++searchVendedorId(vendedorId) : Vendedor
++showPeliculas() : void
++addSala(idSala : String, nomPeli : String, duracionPeli : int, genero, ageRating, salaPremium, row, col) : void
++addVendedor() : void
++addUsuario() : void
++comprarSilla(idSala : String, idSIlla : String, idVendedor : String, idUsuario : String) : 
+</t>
   </si>
 </sst>
 </file>
@@ -264,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -285,7 +296,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:AB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,48 +606,48 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S5" s="7"/>
       <c r="U5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="Z5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="G6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="K6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -649,9 +659,9 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -664,19 +674,19 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="O7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S7" s="3"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -695,9 +705,9 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -716,9 +726,9 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -737,9 +747,9 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -755,6 +765,9 @@
       <c r="P11" s="2"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
@@ -771,36 +784,42 @@
       <c r="M12" s="3"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
     </row>
     <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -809,14 +828,17 @@
       <c r="M14" s="3"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -825,14 +847,17 @@
       <c r="M15" s="3"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -843,9 +868,9 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -856,9 +881,9 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -869,9 +894,9 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -882,6 +907,9 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -889,6 +917,9 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -896,27 +927,48 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="G26" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="K26" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -924,15 +976,21 @@
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="K28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -969,7 +1027,7 @@
     </row>
     <row r="34" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1034,33 +1092,33 @@
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="K44" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L44" s="7"/>
       <c r="U44" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1078,7 +1136,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="K46" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L46" s="3"/>
       <c r="U46" s="5"/>
@@ -1129,7 +1187,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -1141,7 +1199,7 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1197,24 +1255,24 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="G60" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -1245,12 +1303,12 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -1280,8 +1338,10 @@
       <c r="I68" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
     <mergeCell ref="U50:W54"/>
+    <mergeCell ref="U11:W15"/>
+    <mergeCell ref="B13:D29"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="Z6:AB10"/>
     <mergeCell ref="Z11:AB15"/>
@@ -1317,7 +1377,6 @@
     <mergeCell ref="O7:P21"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D12"/>
-    <mergeCell ref="B13:D19"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I12"/>
     <mergeCell ref="G13:I22"/>

--- a/diagrama.xlsx
+++ b/diagrama.xlsx
@@ -75,17 +75,6 @@
 UNSPECIFIED</t>
   </si>
   <si>
-    <t xml:space="preserve">+getIdSala() : String
-+getSillasSala() : List
-+getSalaPremium() : Bool
-+getPelicula() : Pelicula
-+printSillas() : Void
-+comprarSilla(idSilla : String) : Void
-+vaciarSilla(idSilla : String) : Void
-+vaciarSala() : Void
-+infoSilla(idSilla : String) : Void </t>
-  </si>
-  <si>
     <t>&lt;&lt;enum&gt;&gt;
 AgeRating</t>
   </si>
@@ -225,6 +214,18 @@
 +addUsuario() : void
 +comprarSilla(idSala : String, idSIlla : String, idVendedor : String, idUsuario : String) : 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+getIdSala() : String
++getSillasSala() : List
++getSalaPremium() : Bool
++getPelicula() : Pelicula
++getSIlla(idSilla) : Silla
++printSillas() : Void
++comprarSilla(idSilla : String) : Void
++vaciarSilla(idSilla : String) : Void
++vaciarSala() : Void
++infoSilla(idSilla : String) : Void </t>
   </si>
 </sst>
 </file>
@@ -578,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:AB68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +589,8 @@
     <col min="4" max="4" width="36.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="3.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3" style="4" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="4"/>
+    <col min="7" max="8" width="11.42578125" style="4"/>
+    <col min="9" max="9" width="13.85546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="4.5703125" style="4" customWidth="1"/>
     <col min="11" max="13" width="11.42578125" style="4"/>
     <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
@@ -621,23 +623,23 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S5" s="7"/>
       <c r="U5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="Z5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -678,7 +680,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S7" s="3"/>
       <c r="U7" s="5"/>
@@ -793,12 +795,12 @@
     </row>
     <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -938,6 +940,9 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -954,12 +959,12 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="G26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="K26" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L26" s="7"/>
     </row>
@@ -968,7 +973,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -983,7 +988,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="K28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" s="2"/>
     </row>
@@ -1027,7 +1032,7 @@
     </row>
     <row r="34" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1092,33 +1097,33 @@
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="K44" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L44" s="7"/>
       <c r="U44" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1136,7 +1141,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="K46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L46" s="3"/>
       <c r="U46" s="5"/>
@@ -1187,7 +1192,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="G50" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -1199,7 +1204,7 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1255,24 +1260,24 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="G60" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -1303,12 +1308,12 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -1342,6 +1347,7 @@
     <mergeCell ref="U50:W54"/>
     <mergeCell ref="U11:W15"/>
     <mergeCell ref="B13:D29"/>
+    <mergeCell ref="G13:I23"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="Z6:AB10"/>
     <mergeCell ref="Z11:AB15"/>
@@ -1379,7 +1385,6 @@
     <mergeCell ref="B6:D12"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I12"/>
-    <mergeCell ref="G13:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/diagrama.xlsx
+++ b/diagrama.xlsx
@@ -763,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:X68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
